--- a/trans.xlsx
+++ b/trans.xlsx
@@ -1,50 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27127"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data mining project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariam Hassanein\OneDrive - Faculty Of Computer and Information Technology (Ain Shams University)\FCIS\Year2023-2024\DataMining\Task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC58E16-F6D9-495E-AAA4-F0CE11676197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2C7951-5183-4FD6-AA60-8916FEDA2509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{17DB2111-07B2-464C-BF42-0E059FF8B9C3}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>TiD</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>M,O,N,K,E,Y</t>
+  </si>
+  <si>
+    <t>D,O,N,K,E,Y</t>
+  </si>
+  <si>
+    <t>M,A,K,E</t>
+  </si>
+  <si>
+    <t>M,U,C,K,Y</t>
+  </si>
+  <si>
+    <t>C,O,O,K,I,E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -73,7 +96,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="عادي" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -105,7 +128,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -117,7 +140,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -134,7 +157,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -164,12 +187,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -199,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,16 +407,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C9D1CA8-0BC0-434C-8D78-4C97C59906F6}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
+  <cols>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -367,17 +427,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
